--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem project\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070C2A7E-86FE-4E79-84BB-CC6851960D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D6F299-C65F-4718-B63B-4DF16D5DCC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2628" yWindow="1860" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="3252" windowWidth="8592" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>task_id</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>S5</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
   </si>
 </sst>
 </file>
@@ -158,12 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,6 +621,83 @@
         <v>119</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -610,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -636,72 +733,72 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>50</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>210</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>0.83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>45</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>303</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>0.93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>48</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>207</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>0.87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>43</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>325</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>40</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>360</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>0.83</v>
       </c>
     </row>
